--- a/personal/outputs/個人版分析.xlsx
+++ b/personal/outputs/個人版分析.xlsx
@@ -16,17 +16,27 @@
     <sheet name="目前工作狀況" sheetId="7" r:id="rId7"/>
     <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="8" r:id="rId8"/>
     <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="9" r:id="rId9"/>
-    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="10" r:id="rId10"/>
-    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業(性別)" sheetId="11" r:id="rId11"/>
-    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="12" r:id="rId12"/>
-    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="13" r:id="rId13"/>
+    <sheet name="預期的職涯發展需要哪些配合因素來達成(性別)" sheetId="10" r:id="rId10"/>
+    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="11" r:id="rId11"/>
+    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業(性別)" sheetId="12" r:id="rId12"/>
+    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="13" r:id="rId13"/>
+    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="14" r:id="rId14"/>
+    <sheet name="女性身上求學階段有否差異(性別)" sheetId="15" r:id="rId15"/>
+    <sheet name="女性身上求學階段有否差異" sheetId="16" r:id="rId16"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="17" r:id="rId17"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="18" r:id="rId18"/>
+    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="19" r:id="rId19"/>
+    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="20" r:id="rId20"/>
+    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="21" r:id="rId21"/>
+    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="22" r:id="rId22"/>
+    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="432">
   <si>
     <t>女性</t>
   </si>
@@ -815,6 +825,513 @@
   </si>
   <si>
     <t>14.5%</t>
+  </si>
+  <si>
+    <t>在您或您認識的女性身上，性別在工程與科技領域的求學階段有否差異？</t>
+  </si>
+  <si>
+    <t>否，沒有差異</t>
+  </si>
+  <si>
+    <t>有，我有觀察到差異</t>
+  </si>
+  <si>
+    <t>沒有接觸經驗，無法回答</t>
+  </si>
+  <si>
+    <t>15.1%</t>
+  </si>
+  <si>
+    <t>21.1%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>18.5%</t>
+  </si>
+  <si>
+    <t>10.9%</t>
+  </si>
+  <si>
+    <t>45.1%</t>
+  </si>
+  <si>
+    <t>39.6%</t>
+  </si>
+  <si>
+    <t>15.2%</t>
+  </si>
+  <si>
+    <t>動手實驗或實習的機會較少</t>
+  </si>
+  <si>
+    <t>較不敢接受挑戰</t>
+  </si>
+  <si>
+    <t>較受人際問題干擾</t>
+  </si>
+  <si>
+    <t>較容易情緒起伏</t>
+  </si>
+  <si>
+    <t>較容易為情所困</t>
+  </si>
+  <si>
+    <t>較擅長數理學科</t>
+  </si>
+  <si>
+    <t>較用功或成績較好</t>
+  </si>
+  <si>
+    <t>遇到挫折時較易放棄</t>
+  </si>
+  <si>
+    <t>女性較有此特質</t>
+  </si>
+  <si>
+    <t>無差異</t>
+  </si>
+  <si>
+    <t>男性較有此特質</t>
+  </si>
+  <si>
+    <t>24.9%</t>
+  </si>
+  <si>
+    <t>55.8%</t>
+  </si>
+  <si>
+    <t>21.0%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>44.2%</t>
+  </si>
+  <si>
+    <t>45.9%</t>
+  </si>
+  <si>
+    <t>40.3%</t>
+  </si>
+  <si>
+    <t>13.8%</t>
+  </si>
+  <si>
+    <t>33.5%</t>
+  </si>
+  <si>
+    <t>55.3%</t>
+  </si>
+  <si>
+    <t>27.9%</t>
+  </si>
+  <si>
+    <t>44.7%</t>
+  </si>
+  <si>
+    <t>34.1%</t>
+  </si>
+  <si>
+    <t>61.5%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>13.3%</t>
+  </si>
+  <si>
+    <t>55.6%</t>
+  </si>
+  <si>
+    <t>19.4%</t>
+  </si>
+  <si>
+    <t>44.4%</t>
+  </si>
+  <si>
+    <t>39.4%</t>
+  </si>
+  <si>
+    <t>41.7%</t>
+  </si>
+  <si>
+    <t>18.9%</t>
+  </si>
+  <si>
+    <t>12.8%</t>
+  </si>
+  <si>
+    <t>38.3%</t>
+  </si>
+  <si>
+    <t>26.7%</t>
+  </si>
+  <si>
+    <t>21.7%</t>
+  </si>
+  <si>
+    <t>65.0%</t>
+  </si>
+  <si>
+    <t>32.2%</t>
+  </si>
+  <si>
+    <t>13.9%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>35.0%</t>
+  </si>
+  <si>
+    <t>57.2%</t>
+  </si>
+  <si>
+    <t>29.7%</t>
+  </si>
+  <si>
+    <t>20.9%</t>
+  </si>
+  <si>
+    <t>55.5%</t>
+  </si>
+  <si>
+    <t>27.5%</t>
+  </si>
+  <si>
+    <t>44.5%</t>
+  </si>
+  <si>
+    <t>57.1%</t>
+  </si>
+  <si>
+    <t>34.6%</t>
+  </si>
+  <si>
+    <t>31.3%</t>
+  </si>
+  <si>
+    <t>25.8%</t>
+  </si>
+  <si>
+    <t>20.4%</t>
+  </si>
+  <si>
+    <t>30.9%</t>
+  </si>
+  <si>
+    <t>16.0%</t>
+  </si>
+  <si>
+    <t>36.5%</t>
+  </si>
+  <si>
+    <t>53.0%</t>
+  </si>
+  <si>
+    <t>10.5%</t>
+  </si>
+  <si>
+    <t>在您或您認識的工程與科技領域女性身上，性別在求職時的職務選擇方面有否差異？</t>
+  </si>
+  <si>
+    <t>9.3%</t>
+  </si>
+  <si>
+    <t>41.5%</t>
+  </si>
+  <si>
+    <t>53.3%</t>
+  </si>
+  <si>
+    <t>28.6%</t>
+  </si>
+  <si>
+    <t>4.6%</t>
+  </si>
+  <si>
+    <t>46.7%</t>
+  </si>
+  <si>
+    <t>22.8%</t>
+  </si>
+  <si>
+    <t>70.1%</t>
+  </si>
+  <si>
+    <t>選擇內勤為主的職務</t>
+  </si>
+  <si>
+    <t>選擇可兼顧家庭的職務</t>
+  </si>
+  <si>
+    <t>選擇無須出差的職務</t>
+  </si>
+  <si>
+    <t>選擇無須應酬的職務</t>
+  </si>
+  <si>
+    <t>選擇無須輪班或值夜班的職務</t>
+  </si>
+  <si>
+    <t>選擇較有升遷或加薪機會的職務</t>
+  </si>
+  <si>
+    <t>女性較有此傾向</t>
+  </si>
+  <si>
+    <t>男性較有此傾向</t>
+  </si>
+  <si>
+    <t>52.6%</t>
+  </si>
+  <si>
+    <t>58.9%</t>
+  </si>
+  <si>
+    <t>33.7%</t>
+  </si>
+  <si>
+    <t>6.3%</t>
+  </si>
+  <si>
+    <t>41.1%</t>
+  </si>
+  <si>
+    <t>86.3%</t>
+  </si>
+  <si>
+    <t>36.2%</t>
+  </si>
+  <si>
+    <t>59.6%</t>
+  </si>
+  <si>
+    <t>27.7%</t>
+  </si>
+  <si>
+    <t>10.6%</t>
+  </si>
+  <si>
+    <t>40.4%</t>
+  </si>
+  <si>
+    <t>63.8%</t>
+  </si>
+  <si>
+    <t>34.0%</t>
+  </si>
+  <si>
+    <t>43.6%</t>
+  </si>
+  <si>
+    <t>14.9%</t>
+  </si>
+  <si>
+    <t>58.5%</t>
+  </si>
+  <si>
+    <t>67.0%</t>
+  </si>
+  <si>
+    <t>31.9%</t>
+  </si>
+  <si>
+    <t>48.9%</t>
+  </si>
+  <si>
+    <t>83.0%</t>
+  </si>
+  <si>
+    <t>48.4%</t>
+  </si>
+  <si>
+    <t>59.1%</t>
+  </si>
+  <si>
+    <t>28.0%</t>
+  </si>
+  <si>
+    <t>11.8%</t>
+  </si>
+  <si>
+    <t>40.9%</t>
+  </si>
+  <si>
+    <t>76.3%</t>
+  </si>
+  <si>
+    <t>22.6%</t>
+  </si>
+  <si>
+    <t>27.4%</t>
+  </si>
+  <si>
+    <t>42.1%</t>
+  </si>
+  <si>
+    <t>不同性別在工程與科技領域的求職難易度有否差異？</t>
+  </si>
+  <si>
+    <t>有，女性較男性困難</t>
+  </si>
+  <si>
+    <t>有，女性較男性容易</t>
+  </si>
+  <si>
+    <t>46.8%</t>
+  </si>
+  <si>
+    <t>25.6%</t>
+  </si>
+  <si>
+    <t>14.3%</t>
+  </si>
+  <si>
+    <t>72.5%</t>
+  </si>
+  <si>
+    <t>分派工作時女性較不願意接受特定職務或工作條件（例如但不限於須輪班、值夜班、派駐於工地或製造現場）</t>
+  </si>
+  <si>
+    <t>分派工作時較不會賦予特定職務或工作條件給女性（例如但不限於須輪班、值夜班、派駐於工地或製造現場）</t>
+  </si>
+  <si>
+    <t>在相同條件或資格下女性比較不會被分配到重要的工作</t>
+  </si>
+  <si>
+    <t>女性升遷較為困難</t>
+  </si>
+  <si>
+    <t>女性升遷較為容易</t>
+  </si>
+  <si>
+    <t>女性於討論時比較不敢表達自己的意見</t>
+  </si>
+  <si>
+    <t>女性會因為家庭或其他私人因素而婉拒升遷或接受更重要的工作</t>
+  </si>
+  <si>
+    <t>女性要比較努力證明自己的能力才能獲得職場肯定或升遷機會</t>
+  </si>
+  <si>
+    <t>沒有差異</t>
+  </si>
+  <si>
+    <t>11.5%</t>
+  </si>
+  <si>
+    <t>11.0%</t>
+  </si>
+  <si>
+    <t>66.0%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
+    <t>對您的經驗，不同性別的工程與科技領域主管是否有領導風格的差異？</t>
+  </si>
+  <si>
+    <t>只與單一性別主管共事過，無法比較差異</t>
+  </si>
+  <si>
+    <t>是，有差異</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>您個人比較偏好與何種性別工程與科技領域的主管共事？</t>
+  </si>
+  <si>
+    <t>無性別偏好</t>
+  </si>
+  <si>
+    <t>15.3%</t>
+  </si>
+  <si>
+    <t>60.9%</t>
+  </si>
+  <si>
+    <t>17.4%</t>
+  </si>
+  <si>
+    <t>39.1%</t>
+  </si>
+  <si>
+    <t>9.8%</t>
+  </si>
+  <si>
+    <t>32.3%</t>
+  </si>
+  <si>
+    <t>57.9%</t>
+  </si>
+  <si>
+    <t>不同性別工程與科技領域的主管領導風格差異主要顯現在哪些層面？</t>
+  </si>
+  <si>
+    <t>分派工作時的考量點</t>
+  </si>
+  <si>
+    <t>對時間掌控的能力</t>
+  </si>
+  <si>
+    <t>對目標掌控的能力</t>
+  </si>
+  <si>
+    <t>對細節的要求程度</t>
+  </si>
+  <si>
+    <t>對預算掌控的能力</t>
+  </si>
+  <si>
+    <t>懲罰或訓誡部屬的嚴厲程度</t>
+  </si>
+  <si>
+    <t>懲罰或訓誡部屬的方式</t>
+  </si>
+  <si>
+    <t>溝通方式偏好（例如透過面對面溝通、簡訊或訊息、email等）</t>
+  </si>
+  <si>
+    <t>獎勵部屬的慷慨程度</t>
+  </si>
+  <si>
+    <t>獎勵部屬的方式</t>
+  </si>
+  <si>
+    <t>管理方式</t>
+  </si>
+  <si>
+    <t>與屬下間相處的態度</t>
+  </si>
+  <si>
+    <t>親力親為或充分授權</t>
+  </si>
+  <si>
+    <t>非上班時間之任務交辦</t>
+  </si>
+  <si>
+    <t>10.7%</t>
+  </si>
+  <si>
+    <t>13.0%</t>
+  </si>
+  <si>
+    <t>38.5%</t>
+  </si>
+  <si>
+    <t>17.3%</t>
+  </si>
+  <si>
+    <t>24.1%</t>
   </si>
 </sst>
 </file>
@@ -1353,6 +1870,159 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1896,7 +2566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2091,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2272,7 +2942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2459,6 +3129,1075 @@
         <v>235</v>
       </c>
       <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" t="s">
+        <v>308</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>311</v>
+      </c>
+      <c r="N4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P4" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>318</v>
+      </c>
+      <c r="R4" t="s">
+        <v>321</v>
+      </c>
+      <c r="S4" t="s">
+        <v>323</v>
+      </c>
+      <c r="T4" t="s">
+        <v>325</v>
+      </c>
+      <c r="U4" t="s">
+        <v>326</v>
+      </c>
+      <c r="V4" t="s">
+        <v>323</v>
+      </c>
+      <c r="W4" t="s">
+        <v>327</v>
+      </c>
+      <c r="X4" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" t="s">
+        <v>312</v>
+      </c>
+      <c r="N5" t="s">
+        <v>313</v>
+      </c>
+      <c r="O5" t="s">
+        <v>315</v>
+      </c>
+      <c r="P5" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>319</v>
+      </c>
+      <c r="R5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T5" t="s">
+        <v>319</v>
+      </c>
+      <c r="U5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V5" t="s">
+        <v>324</v>
+      </c>
+      <c r="W5" t="s">
+        <v>328</v>
+      </c>
+      <c r="X5" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
+        <v>178</v>
+      </c>
+      <c r="U6" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W6" t="s">
+        <v>176</v>
+      </c>
+      <c r="X6" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>302</v>
+      </c>
+      <c r="O7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>320</v>
+      </c>
+      <c r="R7" t="s">
+        <v>322</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" t="s">
+        <v>320</v>
+      </c>
+      <c r="U7" t="s">
+        <v>322</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" t="s">
+        <v>287</v>
+      </c>
+      <c r="X7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" t="s">
+        <v>366</v>
+      </c>
+      <c r="K4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" t="s">
+        <v>362</v>
+      </c>
+      <c r="M4" t="s">
+        <v>369</v>
+      </c>
+      <c r="N4" t="s">
+        <v>370</v>
+      </c>
+      <c r="O4" t="s">
+        <v>372</v>
+      </c>
+      <c r="P4" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>377</v>
+      </c>
+      <c r="R5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>377</v>
+      </c>
+      <c r="R6" t="s">
+        <v>229</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>371</v>
+      </c>
+      <c r="O7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>351</v>
+      </c>
+      <c r="R7" t="s">
+        <v>354</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2640,6 +4379,618 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4529,16 +6880,14 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
@@ -4559,16 +6908,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -4595,30 +6944,21 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
         <v>161</v>
@@ -4647,16 +6987,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
         <v>186</v>
@@ -4685,16 +7025,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -4723,16 +7063,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -4761,16 +7101,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
@@ -4799,16 +7139,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -4837,16 +7177,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>111</v>

--- a/personal/outputs/個人版分析.xlsx
+++ b/personal/outputs/個人版分析.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naichen\Documents\GitHub\stu00608.github.io\PartTime_PythonAnalysis\personal\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="21" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="年齡" sheetId="1" r:id="rId1"/>
@@ -31,12 +36,12 @@
     <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="22" r:id="rId22"/>
     <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="23" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="424">
   <si>
     <t>女性</t>
   </si>
@@ -1175,174 +1180,155 @@
     <t>42.1%</t>
   </si>
   <si>
+    <t>有，女性較男性困難</t>
+  </si>
+  <si>
+    <t>有，女性較男性容易</t>
+  </si>
+  <si>
+    <t>46.8%</t>
+  </si>
+  <si>
+    <t>25.6%</t>
+  </si>
+  <si>
+    <t>14.3%</t>
+  </si>
+  <si>
+    <t>72.5%</t>
+  </si>
+  <si>
+    <t>分派工作時女性較不願意接受特定職務或工作條件（例如但不限於須輪班、值夜班、派駐於工地或製造現場）</t>
+  </si>
+  <si>
+    <t>分派工作時較不會賦予特定職務或工作條件給女性（例如但不限於須輪班、值夜班、派駐於工地或製造現場）</t>
+  </si>
+  <si>
+    <t>在相同條件或資格下女性比較不會被分配到重要的工作</t>
+  </si>
+  <si>
+    <t>女性升遷較為困難</t>
+  </si>
+  <si>
+    <t>女性升遷較為容易</t>
+  </si>
+  <si>
+    <t>女性於討論時比較不敢表達自己的意見</t>
+  </si>
+  <si>
+    <t>女性會因為家庭或其他私人因素而婉拒升遷或接受更重要的工作</t>
+  </si>
+  <si>
+    <t>女性要比較努力證明自己的能力才能獲得職場肯定或升遷機會</t>
+  </si>
+  <si>
+    <t>沒有差異</t>
+  </si>
+  <si>
+    <t>只與單一性別主管共事過，無法比較差異</t>
+  </si>
+  <si>
+    <t>是，有差異</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>無性別偏好</t>
+  </si>
+  <si>
+    <t>15.3%</t>
+  </si>
+  <si>
+    <t>60.9%</t>
+  </si>
+  <si>
+    <t>17.4%</t>
+  </si>
+  <si>
+    <t>39.1%</t>
+  </si>
+  <si>
+    <t>9.8%</t>
+  </si>
+  <si>
+    <t>32.3%</t>
+  </si>
+  <si>
+    <t>57.9%</t>
+  </si>
+  <si>
+    <t>分派工作時的考量點</t>
+  </si>
+  <si>
+    <t>對時間掌控的能力</t>
+  </si>
+  <si>
+    <t>對目標掌控的能力</t>
+  </si>
+  <si>
+    <t>對細節的要求程度</t>
+  </si>
+  <si>
+    <t>對預算掌控的能力</t>
+  </si>
+  <si>
+    <t>懲罰或訓誡部屬的嚴厲程度</t>
+  </si>
+  <si>
+    <t>懲罰或訓誡部屬的方式</t>
+  </si>
+  <si>
+    <t>溝通方式偏好（例如透過面對面溝通、簡訊或訊息、email等）</t>
+  </si>
+  <si>
+    <t>獎勵部屬的慷慨程度</t>
+  </si>
+  <si>
+    <t>獎勵部屬的方式</t>
+  </si>
+  <si>
+    <t>管理方式</t>
+  </si>
+  <si>
+    <t>與屬下間相處的態度</t>
+  </si>
+  <si>
+    <t>親力親為或充分授權</t>
+  </si>
+  <si>
+    <t>非上班時間之任務交辦</t>
+  </si>
+  <si>
+    <t>在您或您認識的工程與科技領域女性身上，性別在求職時的職務選擇方面有否差異？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>不同性別在工程與科技領域的求職難易度有否差異？</t>
-  </si>
-  <si>
-    <t>有，女性較男性困難</t>
-  </si>
-  <si>
-    <t>有，女性較男性容易</t>
-  </si>
-  <si>
-    <t>46.8%</t>
-  </si>
-  <si>
-    <t>25.6%</t>
-  </si>
-  <si>
-    <t>14.3%</t>
-  </si>
-  <si>
-    <t>72.5%</t>
-  </si>
-  <si>
-    <t>分派工作時女性較不願意接受特定職務或工作條件（例如但不限於須輪班、值夜班、派駐於工地或製造現場）</t>
-  </si>
-  <si>
-    <t>分派工作時較不會賦予特定職務或工作條件給女性（例如但不限於須輪班、值夜班、派駐於工地或製造現場）</t>
-  </si>
-  <si>
-    <t>在相同條件或資格下女性比較不會被分配到重要的工作</t>
-  </si>
-  <si>
-    <t>女性升遷較為困難</t>
-  </si>
-  <si>
-    <t>女性升遷較為容易</t>
-  </si>
-  <si>
-    <t>女性於討論時比較不敢表達自己的意見</t>
-  </si>
-  <si>
-    <t>女性會因為家庭或其他私人因素而婉拒升遷或接受更重要的工作</t>
-  </si>
-  <si>
-    <t>女性要比較努力證明自己的能力才能獲得職場肯定或升遷機會</t>
-  </si>
-  <si>
-    <t>沒有差異</t>
-  </si>
-  <si>
-    <t>11.5%</t>
-  </si>
-  <si>
-    <t>11.0%</t>
-  </si>
-  <si>
-    <t>66.0%</t>
-  </si>
-  <si>
-    <t>3.6%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>對您的經驗，不同性別的工程與科技領域主管是否有領導風格的差異？</t>
-  </si>
-  <si>
-    <t>只與單一性別主管共事過，無法比較差異</t>
-  </si>
-  <si>
-    <t>是，有差異</t>
-  </si>
-  <si>
-    <t>14.6%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同性別工程與科技領域的主管領導風格差異主要顯現在哪些層面？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您個人比較偏好與何種性別工程與科技領域的主管共事？</t>
-  </si>
-  <si>
-    <t>無性別偏好</t>
-  </si>
-  <si>
-    <t>15.3%</t>
-  </si>
-  <si>
-    <t>60.9%</t>
-  </si>
-  <si>
-    <t>17.4%</t>
-  </si>
-  <si>
-    <t>39.1%</t>
-  </si>
-  <si>
-    <t>9.8%</t>
-  </si>
-  <si>
-    <t>32.3%</t>
-  </si>
-  <si>
-    <t>57.9%</t>
-  </si>
-  <si>
-    <t>不同性別工程與科技領域的主管領導風格差異主要顯現在哪些層面？</t>
-  </si>
-  <si>
-    <t>分派工作時的考量點</t>
-  </si>
-  <si>
-    <t>對時間掌控的能力</t>
-  </si>
-  <si>
-    <t>對目標掌控的能力</t>
-  </si>
-  <si>
-    <t>對細節的要求程度</t>
-  </si>
-  <si>
-    <t>對預算掌控的能力</t>
-  </si>
-  <si>
-    <t>懲罰或訓誡部屬的嚴厲程度</t>
-  </si>
-  <si>
-    <t>懲罰或訓誡部屬的方式</t>
-  </si>
-  <si>
-    <t>溝通方式偏好（例如透過面對面溝通、簡訊或訊息、email等）</t>
-  </si>
-  <si>
-    <t>獎勵部屬的慷慨程度</t>
-  </si>
-  <si>
-    <t>獎勵部屬的方式</t>
-  </si>
-  <si>
-    <t>管理方式</t>
-  </si>
-  <si>
-    <t>與屬下間相處的態度</t>
-  </si>
-  <si>
-    <t>親力親為或充分授權</t>
-  </si>
-  <si>
-    <t>非上班時間之任務交辦</t>
-  </si>
-  <si>
-    <t>10.7%</t>
-  </si>
-  <si>
-    <t>13.0%</t>
-  </si>
-  <si>
-    <t>38.5%</t>
-  </si>
-  <si>
-    <t>17.3%</t>
-  </si>
-  <si>
-    <t>24.1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1350,17 +1336,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1390,22 +1395,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1447,7 +1554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1479,9 +1586,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1513,6 +1621,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1688,14 +1797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1846,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1765,7 +1874,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1888,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1793,7 +1902,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1916,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1930,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1864,19 +1973,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -1890,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
@@ -1904,7 +2014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -1918,7 +2028,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>190</v>
       </c>
@@ -1932,7 +2042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>191</v>
       </c>
@@ -1946,7 +2056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>192</v>
       </c>
@@ -1960,7 +2070,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>193</v>
       </c>
@@ -1974,7 +2084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
@@ -1988,7 +2098,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>195</v>
       </c>
@@ -2002,7 +2112,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2017,47 +2127,48 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -2093,12 +2204,12 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
@@ -2136,7 +2247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>215</v>
       </c>
@@ -2174,7 +2285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>216</v>
       </c>
@@ -2212,7 +2323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>217</v>
       </c>
@@ -2250,7 +2361,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>218</v>
       </c>
@@ -2288,7 +2399,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -2326,7 +2437,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>220</v>
       </c>
@@ -2364,7 +2475,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
@@ -2402,7 +2513,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2440,7 +2551,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
@@ -2478,7 +2589,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>224</v>
       </c>
@@ -2516,7 +2627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2562,19 +2673,20 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
@@ -2588,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>214</v>
       </c>
@@ -2602,7 +2714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>215</v>
       </c>
@@ -2616,7 +2728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>216</v>
       </c>
@@ -2630,7 +2742,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>217</v>
       </c>
@@ -2644,7 +2756,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>218</v>
       </c>
@@ -2658,7 +2770,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>219</v>
       </c>
@@ -2672,7 +2784,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>220</v>
       </c>
@@ -2686,7 +2798,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>221</v>
       </c>
@@ -2700,7 +2812,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>222</v>
       </c>
@@ -2714,7 +2826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>223</v>
       </c>
@@ -2728,7 +2840,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>224</v>
       </c>
@@ -2742,7 +2854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2757,19 +2869,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
@@ -2783,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>215</v>
       </c>
@@ -2797,7 +2910,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>216</v>
       </c>
@@ -2811,7 +2924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>237</v>
       </c>
@@ -2825,7 +2938,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>238</v>
       </c>
@@ -2839,7 +2952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>219</v>
       </c>
@@ -2853,7 +2966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>220</v>
       </c>
@@ -2867,7 +2980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -2881,7 +2994,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>222</v>
       </c>
@@ -2895,7 +3008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>223</v>
       </c>
@@ -2909,7 +3022,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>224</v>
       </c>
@@ -2923,7 +3036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2938,19 +3051,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
@@ -2964,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>247</v>
       </c>
@@ -2978,7 +3092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>248</v>
       </c>
@@ -2992,7 +3106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>249</v>
       </c>
@@ -3006,7 +3120,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>250</v>
       </c>
@@ -3020,7 +3134,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>251</v>
       </c>
@@ -3034,7 +3148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>252</v>
       </c>
@@ -3048,7 +3162,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>253</v>
       </c>
@@ -3062,7 +3176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>254</v>
       </c>
@@ -3076,7 +3190,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>255</v>
       </c>
@@ -3090,7 +3204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>256</v>
       </c>
@@ -3104,7 +3218,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>257</v>
       </c>
@@ -3118,7 +3232,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3133,19 +3247,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>263</v>
       </c>
@@ -3159,25 +3276,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C3" t="s">
@@ -3187,7 +3304,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>
@@ -3201,7 +3318,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3216,62 +3333,66 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3279,7 +3400,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3288,7 +3409,7 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3297,7 +3418,7 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3306,7 +3427,7 @@
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -3315,7 +3436,7 @@
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -3324,7 +3445,7 @@
       <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -3333,7 +3454,7 @@
       <c r="U2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="W2" s="1" t="s">
@@ -3342,26 +3463,34 @@
       <c r="X2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="D3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E4" t="s">
@@ -3370,16 +3499,16 @@
       <c r="F4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>300</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>305</v>
       </c>
       <c r="K4" t="s">
@@ -3388,7 +3517,7 @@
       <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>311</v>
       </c>
       <c r="N4" t="s">
@@ -3397,25 +3526,25 @@
       <c r="O4" t="s">
         <v>314</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="5" t="s">
         <v>323</v>
       </c>
       <c r="W4" t="s">
@@ -3424,11 +3553,11 @@
       <c r="X4" t="s">
         <v>329</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>284</v>
       </c>
@@ -3438,7 +3567,7 @@
       <c r="C5" t="s">
         <v>289</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>292</v>
       </c>
       <c r="E5" t="s">
@@ -3447,34 +3576,34 @@
       <c r="F5" t="s">
         <v>262</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="5" t="s">
         <v>317</v>
       </c>
       <c r="Q5" t="s">
@@ -3483,7 +3612,7 @@
       <c r="R5" t="s">
         <v>142</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="5" t="s">
         <v>324</v>
       </c>
       <c r="T5" t="s">
@@ -3492,20 +3621,20 @@
       <c r="U5" t="s">
         <v>142</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>285</v>
       </c>
@@ -3515,16 +3644,16 @@
       <c r="C6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>299</v>
       </c>
       <c r="H6" t="s">
@@ -3533,7 +3662,7 @@
       <c r="I6" t="s">
         <v>165</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>307</v>
       </c>
       <c r="K6" t="s">
@@ -3542,7 +3671,7 @@
       <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
         <v>301</v>
       </c>
       <c r="N6" t="s">
@@ -3551,7 +3680,7 @@
       <c r="O6" t="s">
         <v>165</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="Q6" t="s">
@@ -3560,7 +3689,7 @@
       <c r="R6" t="s">
         <v>178</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="5" t="s">
         <v>91</v>
       </c>
       <c r="T6" t="s">
@@ -3569,7 +3698,7 @@
       <c r="U6" t="s">
         <v>144</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="5" t="s">
         <v>91</v>
       </c>
       <c r="W6" t="s">
@@ -3578,113 +3707,116 @@
       <c r="X6" t="s">
         <v>182</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3696,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>264</v>
       </c>
@@ -3710,21 +3842,21 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>
@@ -3738,7 +3870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3753,52 +3885,55 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3806,7 +3941,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3815,7 +3950,7 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3824,7 +3959,7 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3833,7 +3968,7 @@
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -3842,7 +3977,7 @@
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -3851,62 +3986,68 @@
       <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="D3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="5" t="s">
         <v>375</v>
       </c>
       <c r="Q4" t="s">
@@ -3915,11 +4056,11 @@
       <c r="R4" t="s">
         <v>60</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>284</v>
       </c>
@@ -3929,7 +4070,7 @@
       <c r="C5" t="s">
         <v>353</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E5" t="s">
@@ -3938,7 +4079,7 @@
       <c r="F5" t="s">
         <v>359</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>362</v>
       </c>
       <c r="H5" t="s">
@@ -3947,7 +4088,7 @@
       <c r="I5" t="s">
         <v>183</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>367</v>
       </c>
       <c r="K5" t="s">
@@ -3956,7 +4097,7 @@
       <c r="L5" t="s">
         <v>106</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>183</v>
       </c>
       <c r="N5" t="s">
@@ -3965,20 +4106,20 @@
       <c r="O5" t="s">
         <v>373</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>377</v>
       </c>
       <c r="R5" t="s">
         <v>146</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>349</v>
       </c>
@@ -3988,7 +4129,7 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E6" t="s">
@@ -3997,7 +4138,7 @@
       <c r="F6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H6" t="s">
@@ -4006,7 +4147,7 @@
       <c r="I6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K6" t="s">
@@ -4015,7 +4156,7 @@
       <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N6" t="s">
@@ -4024,102 +4165,105 @@
       <c r="O6" t="s">
         <v>74</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4131,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>264</v>
       </c>
@@ -4142,26 +4286,26 @@
         <v>114</v>
       </c>
       <c r="D2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4173,7 +4317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>266</v>
       </c>
@@ -4187,7 +4331,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4202,19 +4346,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +4373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4242,7 +4387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4270,7 +4415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4284,7 +4429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4298,7 +4443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4312,7 +4457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +4471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4340,7 +4485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4354,7 +4499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4368,7 +4513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4383,21 +4528,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4409,190 +4557,202 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C13" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
+      <c r="B13" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B12">
+    <cfRule type="top10" dxfId="10" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C12">
+    <cfRule type="top10" dxfId="9" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D12">
+    <cfRule type="top10" dxfId="6" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4604,9 +4764,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>259</v>
@@ -4618,7 +4778,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>264</v>
       </c>
@@ -4629,24 +4789,24 @@
         <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4661,21 +4821,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4687,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4698,67 +4861,70 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4770,292 +4936,302 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.107</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B10" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="B11" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="B12" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B13" s="6">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="B14" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B16" t="s">
-        <v>67</v>
+      <c r="B16" s="6">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" t="s">
-        <v>429</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
+      <c r="B17" s="6">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="top10" dxfId="4" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C16">
+    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D16">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="2"/>
       <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -5121,12 +5297,12 @@
       </c>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -5194,7 +5370,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -5262,7 +5438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -5330,7 +5506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -5398,7 +5574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -5466,7 +5642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -5536,54 +5712,55 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -5613,7 +5790,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -5645,7 +5822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -5684,55 +5861,56 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="2"/>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -5780,12 +5958,12 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -5835,7 +6013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -5885,7 +6063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -5935,7 +6113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -5985,7 +6163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -6037,27 +6215,28 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -6071,7 +6250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -6085,7 +6264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -6099,7 +6278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -6113,7 +6292,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -6127,7 +6306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
@@ -6141,7 +6320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -6155,7 +6334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -6169,7 +6348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
@@ -6183,7 +6362,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -6197,7 +6376,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
@@ -6211,7 +6390,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -6225,7 +6404,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
@@ -6239,7 +6418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -6253,7 +6432,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -6267,7 +6446,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
@@ -6281,7 +6460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -6296,19 +6475,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -6322,7 +6502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -6336,7 +6516,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -6350,7 +6530,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
@@ -6364,7 +6544,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
@@ -6378,7 +6558,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
@@ -6392,7 +6572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>154</v>
       </c>
@@ -6406,7 +6586,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
@@ -6420,7 +6600,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -6435,47 +6615,48 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -6511,12 +6692,12 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
@@ -6554,7 +6735,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -6592,7 +6773,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>170</v>
       </c>
@@ -6630,7 +6811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -6668,7 +6849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>172</v>
       </c>
@@ -6706,7 +6887,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>173</v>
       </c>
@@ -6744,7 +6925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>174</v>
       </c>
@@ -6782,7 +6963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -6820,7 +7001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6866,47 +7047,48 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -6942,12 +7124,12 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -6985,7 +7167,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>189</v>
       </c>
@@ -7023,7 +7205,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>190</v>
       </c>
@@ -7061,7 +7243,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>191</v>
       </c>
@@ -7099,7 +7281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
@@ -7137,7 +7319,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>193</v>
       </c>
@@ -7175,7 +7357,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>194</v>
       </c>
@@ -7213,7 +7395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>195</v>
       </c>
@@ -7251,7 +7433,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -7297,6 +7479,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/personal/outputs/個人版分析.xlsx
+++ b/personal/outputs/個人版分析.xlsx
@@ -11,29 +11,31 @@
     <sheet name="最高學歷" sheetId="2" r:id="rId2"/>
     <sheet name="最高學歷(比例)" sheetId="3" r:id="rId3"/>
     <sheet name="總年資" sheetId="4" r:id="rId4"/>
-    <sheet name="離開工程職務最主要原因分析" sheetId="5" r:id="rId5"/>
-    <sheet name="目前工作狀況" sheetId="6" r:id="rId6"/>
-    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="7" r:id="rId7"/>
-    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="8" r:id="rId8"/>
-    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="9" r:id="rId9"/>
-    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="10" r:id="rId10"/>
-    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="11" r:id="rId11"/>
-    <sheet name="女性身上求學階段有否差異(性別)" sheetId="12" r:id="rId12"/>
-    <sheet name="女性身上求學階段有否差異" sheetId="13" r:id="rId13"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="14" r:id="rId14"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="15" r:id="rId15"/>
-    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="16" r:id="rId16"/>
-    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="17" r:id="rId17"/>
-    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="18" r:id="rId18"/>
-    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="19" r:id="rId19"/>
-    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="20" r:id="rId20"/>
+    <sheet name="總年資(比例)" sheetId="5" r:id="rId5"/>
+    <sheet name="離開工程職務最主要原因分析" sheetId="6" r:id="rId6"/>
+    <sheet name="目前工作狀況" sheetId="7" r:id="rId7"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="8" r:id="rId8"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期(比例)" sheetId="9" r:id="rId9"/>
+    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="10" r:id="rId10"/>
+    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="11" r:id="rId11"/>
+    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="12" r:id="rId12"/>
+    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="13" r:id="rId13"/>
+    <sheet name="女性身上求學階段有否差異(性別)" sheetId="14" r:id="rId14"/>
+    <sheet name="女性身上求學階段有否差異" sheetId="15" r:id="rId15"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="16" r:id="rId16"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="17" r:id="rId17"/>
+    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="18" r:id="rId18"/>
+    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="19" r:id="rId19"/>
+    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="20" r:id="rId20"/>
+    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="21" r:id="rId21"/>
+    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="291">
   <si>
     <t>女性占比</t>
   </si>
@@ -137,6 +139,9 @@
     <t>非工程與科技職務</t>
   </si>
   <si>
+    <t>人數</t>
+  </si>
+  <si>
     <t>30.4%</t>
   </si>
   <si>
@@ -221,6 +226,117 @@
     <t>41.2%</t>
   </si>
   <si>
+    <t>89.2%</t>
+  </si>
+  <si>
+    <t>7.5%</t>
+  </si>
+  <si>
+    <t>2.2%</t>
+  </si>
+  <si>
+    <t>1.1%</t>
+  </si>
+  <si>
+    <t>98.9%</t>
+  </si>
+  <si>
+    <t>87.3%</t>
+  </si>
+  <si>
+    <t>5.6%</t>
+  </si>
+  <si>
+    <t>7.0%</t>
+  </si>
+  <si>
+    <t>93.9%</t>
+  </si>
+  <si>
+    <t>4.9%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>74.6%</t>
+  </si>
+  <si>
+    <t>9.5%</t>
+  </si>
+  <si>
+    <t>6.3%</t>
+  </si>
+  <si>
+    <t>95.5%</t>
+  </si>
+  <si>
+    <t>65.3%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>16.3%</t>
+  </si>
+  <si>
+    <t>84.0%</t>
+  </si>
+  <si>
+    <t>5.3%</t>
+  </si>
+  <si>
+    <t>10.6%</t>
+  </si>
+  <si>
+    <t>75.0%</t>
+  </si>
+  <si>
+    <t>9.4%</t>
+  </si>
+  <si>
+    <t>15.6%</t>
+  </si>
+  <si>
+    <t>79.2%</t>
+  </si>
+  <si>
+    <t>4.7%</t>
+  </si>
+  <si>
+    <t>16.0%</t>
+  </si>
+  <si>
+    <t>56.0%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>14.0%</t>
+  </si>
+  <si>
+    <t>76.9%</t>
+  </si>
+  <si>
+    <t>12.2%</t>
+  </si>
+  <si>
+    <t>1.4%</t>
+  </si>
+  <si>
+    <t>90.2%</t>
+  </si>
+  <si>
+    <t>6.9%</t>
+  </si>
+  <si>
+    <t>2.9%</t>
+  </si>
+  <si>
+    <t>95.6%</t>
+  </si>
+  <si>
     <t>離開工程職務原因(72人)</t>
   </si>
   <si>
@@ -269,9 +385,6 @@
     <t>須照顧家人</t>
   </si>
   <si>
-    <t>人數</t>
-  </si>
-  <si>
     <t>目前的工作狀況(107人)</t>
   </si>
   <si>
@@ -369,6 +482,144 @@
   </si>
   <si>
     <t>32.7%</t>
+  </si>
+  <si>
+    <t>42.1%</t>
+  </si>
+  <si>
+    <t>10.5%</t>
+  </si>
+  <si>
+    <t>17.5%</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
+    <t>7.4%</t>
+  </si>
+  <si>
+    <t>39.4%</t>
+  </si>
+  <si>
+    <t>3.2%</t>
+  </si>
+  <si>
+    <t>6.4%</t>
+  </si>
+  <si>
+    <t>23.4%</t>
+  </si>
+  <si>
+    <t>4.3%</t>
+  </si>
+  <si>
+    <t>12.8%</t>
+  </si>
+  <si>
+    <t>9.2%</t>
+  </si>
+  <si>
+    <t>40.8%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>14.1%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>3.3%</t>
+  </si>
+  <si>
+    <t>15.1%</t>
+  </si>
+  <si>
+    <t>31.4%</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>17.0%</t>
+  </si>
+  <si>
+    <t>13.6%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>38.1%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>11.6%</t>
+  </si>
+  <si>
+    <t>6.8%</t>
+  </si>
+  <si>
+    <t>20.4%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>5.4%</t>
+  </si>
+  <si>
+    <t>17.1%</t>
+  </si>
+  <si>
+    <t>36.0%</t>
+  </si>
+  <si>
+    <t>8.1%</t>
+  </si>
+  <si>
+    <t>13.1%</t>
+  </si>
+  <si>
+    <t>10.8%</t>
+  </si>
+  <si>
+    <t>11.8%</t>
+  </si>
+  <si>
+    <t>76.5%</t>
+  </si>
+  <si>
+    <t>5.9%</t>
+  </si>
+  <si>
+    <t>13.3%</t>
+  </si>
+  <si>
+    <t>42.2%</t>
+  </si>
+  <si>
+    <t>6.7%</t>
+  </si>
+  <si>
+    <t>8.9%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>22.2%</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
   </si>
   <si>
     <t>預期的職涯發展配合因素(1307人)</t>
@@ -1159,6 +1410,340 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2">
+        <v>193</v>
+      </c>
+      <c r="C2">
+        <v>312</v>
+      </c>
+      <c r="D2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3">
+        <v>366</v>
+      </c>
+      <c r="C3">
+        <v>560</v>
+      </c>
+      <c r="D3">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>153</v>
+      </c>
+      <c r="D7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>913</v>
+      </c>
+      <c r="C10">
+        <v>1359</v>
+      </c>
+      <c r="D10">
+        <v>2272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4">
+        <v>217</v>
+      </c>
+      <c r="C4">
+        <v>290</v>
+      </c>
+      <c r="D4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5">
+        <v>276</v>
+      </c>
+      <c r="C5">
+        <v>364</v>
+      </c>
+      <c r="D5">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>241</v>
+      </c>
+      <c r="D8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>1245</v>
+      </c>
+      <c r="C12">
+        <v>1649</v>
+      </c>
+      <c r="D12">
+        <v>2894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1167,7 +1752,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -1181,7 +1766,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="B2">
         <v>142</v>
@@ -1195,7 +1780,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1209,7 +1794,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <v>52</v>
@@ -1223,7 +1808,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -1237,7 +1822,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>34</v>
@@ -1251,7 +1836,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -1265,7 +1850,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>32</v>
@@ -1279,7 +1864,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -1293,7 +1878,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B10">
         <v>142</v>
@@ -1307,7 +1892,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="B11">
         <v>86</v>
@@ -1321,7 +1906,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="B12">
         <v>263</v>
@@ -1335,7 +1920,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>193</v>
@@ -1349,7 +1934,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>1105</v>
@@ -1366,7 +1951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1376,7 +1961,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -1390,7 +1975,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -1404,7 +1989,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1418,7 +2003,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>274</v>
@@ -1432,7 +2017,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>130</v>
@@ -1446,7 +2031,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>26</v>
@@ -1460,7 +2045,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>119</v>
@@ -1474,7 +2059,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="B8">
         <v>167</v>
@@ -1488,7 +2073,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>149</v>
@@ -1502,7 +2087,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -1516,7 +2101,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -1530,7 +2115,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="B12">
         <v>209</v>
@@ -1544,7 +2129,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>1302</v>
@@ -1561,7 +2146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1571,7 +2156,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -1585,7 +2170,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>198</v>
@@ -1599,7 +2184,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="B3">
         <v>276</v>
@@ -1613,7 +2198,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -1627,7 +2212,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>531</v>
@@ -1644,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -1655,42 +2240,42 @@
     <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -1772,12 +2357,12 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -1854,7 +2439,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -1931,7 +2516,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -2008,7 +2593,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>101</v>
@@ -2098,7 +2683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2108,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -2122,7 +2707,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -2136,7 +2721,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="B3">
         <v>215</v>
@@ -2150,7 +2735,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -2164,7 +2749,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>276</v>
@@ -2181,7 +2766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -2192,32 +2777,32 @@
     <row r="1" spans="1:19">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -2281,12 +2866,12 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -2345,7 +2930,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2404,7 +2989,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2434,13 +3019,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="M6" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2463,7 +3048,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>56</v>
@@ -2533,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2543,7 +3128,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -2557,7 +3142,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -2571,7 +3156,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -2585,7 +3170,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -2599,7 +3184,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -2613,7 +3198,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>215</v>
@@ -2630,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2640,7 +3225,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -2654,7 +3239,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="B2">
         <v>66</v>
@@ -2668,7 +3253,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="B3">
         <v>106</v>
@@ -2682,7 +3267,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="B4">
         <v>114</v>
@@ -2696,7 +3281,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="B5">
         <v>159</v>
@@ -2710,7 +3295,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2724,7 +3309,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="B7">
         <v>39</v>
@@ -2738,7 +3323,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="B8">
         <v>136</v>
@@ -2752,7 +3337,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="B9">
         <v>130</v>
@@ -2766,7 +3351,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2780,7 +3365,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -2794,7 +3379,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -2808,7 +3393,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>779</v>
@@ -2818,163 +3403,6 @@
       </c>
       <c r="D13">
         <v>1180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>37</v>
-      </c>
-      <c r="D2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4">
-        <v>143</v>
-      </c>
-      <c r="C4">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>215</v>
-      </c>
-      <c r="C5">
-        <v>148</v>
-      </c>
-      <c r="D5">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2984,7 +3412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3118,6 +3546,38 @@
       </c>
       <c r="J6">
         <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>422</v>
+      </c>
+      <c r="C7">
+        <v>687</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
@@ -3135,6 +3595,172 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4">
+        <v>143</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>215</v>
+      </c>
+      <c r="C5">
+        <v>148</v>
+      </c>
+      <c r="D5">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3143,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -3157,7 +3783,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -3171,7 +3797,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -3185,7 +3811,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -3199,7 +3825,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>69</v>
@@ -3213,7 +3839,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3227,7 +3853,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3241,7 +3867,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -3255,7 +3881,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -3269,7 +3895,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -3283,7 +3909,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -3297,7 +3923,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="B12">
         <v>84</v>
@@ -3311,7 +3937,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="B13">
         <v>95</v>
@@ -3325,7 +3951,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="B14">
         <v>21</v>
@@ -3339,7 +3965,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -3353,7 +3979,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3367,7 +3993,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>397</v>
@@ -3386,7 +4012,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3463,31 +4089,31 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3495,31 +4121,63 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>422</v>
+      </c>
+      <c r="C7">
+        <v>687</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
@@ -3546,35 +4204,35 @@
     <row r="1" spans="1:18">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -3637,7 +4295,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>1008</v>
@@ -3691,7 +4349,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>86</v>
@@ -3747,7 +4405,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>91</v>
@@ -3801,7 +4459,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -3852,10 +4510,10 @@
     <row r="8" spans="1:18">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>1193</v>
@@ -3922,6 +4580,391 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>1008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <v>1193</v>
+      </c>
+      <c r="E8">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>82</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>88</v>
+      </c>
+      <c r="K8">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>94</v>
+      </c>
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>106</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>147</v>
+      </c>
+      <c r="Q8">
+        <v>102</v>
+      </c>
+      <c r="R8">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3930,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -3944,7 +4987,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3958,7 +5001,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3972,7 +5015,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3986,7 +5029,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4000,7 +5043,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4014,7 +5057,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4028,7 +5071,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -4042,7 +5085,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -4056,7 +5099,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -4070,7 +5113,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -4084,7 +5127,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4098,7 +5141,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4112,7 +5155,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4126,7 +5169,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4140,7 +5183,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -4154,7 +5197,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>40</v>
@@ -4171,7 +5214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4181,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -4195,7 +5238,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4209,7 +5252,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -4223,7 +5266,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4237,7 +5280,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4251,7 +5294,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4265,7 +5308,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -4279,7 +5322,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -4293,7 +5336,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -4310,7 +5353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -4320,36 +5363,36 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -4390,15 +5433,15 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>163</v>
@@ -4436,10 +5479,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>487</v>
@@ -4477,10 +5520,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -4518,10 +5561,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>152</v>
@@ -4559,10 +5602,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>172</v>
@@ -4600,10 +5643,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C9">
         <v>177</v>
@@ -4641,10 +5684,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>34</v>
@@ -4682,10 +5725,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C11">
         <v>101</v>
@@ -4723,7 +5766,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -4775,336 +5818,467 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2">
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5">
+        <v>487</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" t="s">
         <v>193</v>
       </c>
-      <c r="C2">
-        <v>312</v>
-      </c>
-      <c r="D2">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3">
-        <v>366</v>
-      </c>
-      <c r="C3">
-        <v>560</v>
-      </c>
-      <c r="D3">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4">
-        <v>71</v>
-      </c>
-      <c r="C4">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="M5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6">
-        <v>98</v>
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
       </c>
       <c r="C6">
-        <v>85</v>
-      </c>
-      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>153</v>
-      </c>
-      <c r="D7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>72</v>
-      </c>
-      <c r="D8">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="C9">
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10">
         <v>34</v>
       </c>
-      <c r="D9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
-        <v>913</v>
-      </c>
-      <c r="C10">
-        <v>1359</v>
-      </c>
-      <c r="D10">
-        <v>2272</v>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1307</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>306</v>
+      </c>
+      <c r="G12">
+        <v>411</v>
+      </c>
+      <c r="H12">
+        <v>147</v>
+      </c>
+      <c r="I12">
+        <v>222</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>45</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2">
-        <v>47</v>
-      </c>
-      <c r="C2">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>52</v>
-      </c>
-      <c r="D3">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4">
-        <v>217</v>
-      </c>
-      <c r="C4">
-        <v>290</v>
-      </c>
-      <c r="D4">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5">
-        <v>276</v>
-      </c>
-      <c r="C5">
-        <v>364</v>
-      </c>
-      <c r="D5">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6">
-        <v>63</v>
-      </c>
-      <c r="C6">
-        <v>76</v>
-      </c>
-      <c r="D6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>241</v>
-      </c>
-      <c r="D8">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9">
-        <v>73</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10">
-        <v>148</v>
-      </c>
-      <c r="C10">
-        <v>73</v>
-      </c>
-      <c r="D10">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
-        <v>1245</v>
-      </c>
-      <c r="C12">
-        <v>1649</v>
-      </c>
-      <c r="D12">
-        <v>2894</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/personal/outputs/個人版分析.xlsx
+++ b/personal/outputs/個人版分析.xlsx
@@ -1,36 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naichen\Documents\GitHub\stu00608.github.io\PartTime_PythonAnalysis\personal\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="年齡" sheetId="1" r:id="rId1"/>
-    <sheet name="最高學歷" sheetId="2" r:id="rId2"/>
-    <sheet name="最高學歷(比例)" sheetId="3" r:id="rId3"/>
-    <sheet name="總年資" sheetId="4" r:id="rId4"/>
-    <sheet name="總年資(比例)" sheetId="5" r:id="rId5"/>
-    <sheet name="離開工程職務最主要原因分析" sheetId="6" r:id="rId6"/>
-    <sheet name="目前工作狀況" sheetId="7" r:id="rId7"/>
-    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="8" r:id="rId8"/>
-    <sheet name="對於現任職務之五年後職涯發展的預期(比例)" sheetId="9" r:id="rId9"/>
-    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="10" r:id="rId10"/>
-    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="11" r:id="rId11"/>
-    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="12" r:id="rId12"/>
-    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="13" r:id="rId13"/>
-    <sheet name="女性身上求學階段有否差異(性別)" sheetId="14" r:id="rId14"/>
-    <sheet name="女性身上求學階段有否差異" sheetId="15" r:id="rId15"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="16" r:id="rId16"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="17" r:id="rId17"/>
-    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="18" r:id="rId18"/>
-    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="19" r:id="rId19"/>
-    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="20" r:id="rId20"/>
-    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="21" r:id="rId21"/>
-    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="22" r:id="rId22"/>
+    <sheet name="最高畢業" sheetId="3" r:id="rId2"/>
+    <sheet name="最高畢業(比例)" sheetId="4" r:id="rId3"/>
+    <sheet name="總年資" sheetId="5" r:id="rId4"/>
+    <sheet name="總年資(比例)" sheetId="6" r:id="rId5"/>
+    <sheet name="離開工程職務最主要原因分析" sheetId="7" r:id="rId6"/>
+    <sheet name="目前工作狀況" sheetId="8" r:id="rId7"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="9" r:id="rId8"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期(比例)" sheetId="10" r:id="rId9"/>
+    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="11" r:id="rId10"/>
+    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="12" r:id="rId11"/>
+    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="13" r:id="rId12"/>
+    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="14" r:id="rId13"/>
+    <sheet name="女性身上求學階段有否差異(性別)" sheetId="15" r:id="rId14"/>
+    <sheet name="女性身上求學階段有否差異" sheetId="16" r:id="rId15"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="17" r:id="rId16"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="18" r:id="rId17"/>
+    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="19" r:id="rId18"/>
+    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="20" r:id="rId19"/>
+    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="21" r:id="rId20"/>
+    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="22" r:id="rId21"/>
+    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -112,6 +117,48 @@
     <t>40.6%</t>
   </si>
   <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>博士</t>
+  </si>
+  <si>
+    <t>碩士</t>
+  </si>
+  <si>
+    <t>大學/大專</t>
+  </si>
+  <si>
+    <t>專科</t>
+  </si>
+  <si>
+    <t>高職</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>38.9%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>22.2%</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>23.4%</t>
+  </si>
+  <si>
+    <t>52.9%</t>
+  </si>
+  <si>
+    <t>40.8%</t>
+  </si>
+  <si>
     <t>工程與科技相關領域</t>
   </si>
   <si>
@@ -175,9 +222,6 @@
     <t>0.4%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>91.8%</t>
   </si>
   <si>
@@ -208,12 +252,6 @@
     <t>30年以上</t>
   </si>
   <si>
-    <t>合計</t>
-  </si>
-  <si>
-    <t>38.9%</t>
-  </si>
-  <si>
     <t>62.8%</t>
   </si>
   <si>
@@ -418,21 +456,6 @@
     <t>不分學歷小計</t>
   </si>
   <si>
-    <t>博士</t>
-  </si>
-  <si>
-    <t>碩士</t>
-  </si>
-  <si>
-    <t>大學/大專</t>
-  </si>
-  <si>
-    <t>專科</t>
-  </si>
-  <si>
-    <t>高職</t>
-  </si>
-  <si>
     <t>現任職務之五年後職涯發展的預期</t>
   </si>
   <si>
@@ -478,9 +501,6 @@
     <t>51.4%</t>
   </si>
   <si>
-    <t>52.9%</t>
-  </si>
-  <si>
     <t>32.7%</t>
   </si>
   <si>
@@ -508,9 +528,6 @@
     <t>6.4%</t>
   </si>
   <si>
-    <t>23.4%</t>
-  </si>
-  <si>
     <t>4.3%</t>
   </si>
   <si>
@@ -520,9 +537,6 @@
     <t>9.2%</t>
   </si>
   <si>
-    <t>40.8%</t>
-  </si>
-  <si>
     <t>0.3%</t>
   </si>
   <si>
@@ -611,15 +625,6 @@
   </si>
   <si>
     <t>4.4%</t>
-  </si>
-  <si>
-    <t>22.2%</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>25.0%</t>
   </si>
   <si>
     <t>預期的職涯發展配合因素(1307人)</t>
@@ -913,12 +918,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -926,8 +931,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -966,22 +978,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1023,7 +1046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,9 +1078,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,6 +1113,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1264,14 +1289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1329,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1340,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1351,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1362,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1373,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1370,7 +1395,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1404,33 +1429,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -1444,7 +1470,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -1458,7 +1484,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>198</v>
       </c>
@@ -1472,7 +1498,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -1486,7 +1512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>200</v>
       </c>
@@ -1500,7 +1526,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>201</v>
       </c>
@@ -1514,7 +1540,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>202</v>
       </c>
@@ -1528,7 +1554,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -1542,9 +1568,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>913</v>
@@ -1557,33 +1583,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>206</v>
       </c>
@@ -1611,7 +1638,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>207</v>
       </c>
@@ -1625,7 +1652,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>208</v>
       </c>
@@ -1639,7 +1666,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>209</v>
       </c>
@@ -1653,7 +1680,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>210</v>
       </c>
@@ -1667,7 +1694,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>211</v>
       </c>
@@ -1681,7 +1708,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>212</v>
       </c>
@@ -1695,7 +1722,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>213</v>
       </c>
@@ -1709,7 +1736,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -1723,9 +1750,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1245</v>
@@ -1738,33 +1765,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -1778,7 +1806,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
@@ -1792,7 +1820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>205</v>
       </c>
@@ -1806,7 +1834,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>206</v>
       </c>
@@ -1820,7 +1848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>217</v>
       </c>
@@ -1834,7 +1862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>218</v>
       </c>
@@ -1848,7 +1876,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>209</v>
       </c>
@@ -1862,7 +1890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>210</v>
       </c>
@@ -1876,7 +1904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>219</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>212</v>
       </c>
@@ -1904,7 +1932,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>213</v>
       </c>
@@ -1918,7 +1946,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>214</v>
       </c>
@@ -1932,9 +1960,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>1105</v>
@@ -1947,33 +1975,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>221</v>
       </c>
@@ -1987,7 +2016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -2001,7 +2030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
@@ -2015,7 +2044,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>224</v>
       </c>
@@ -2029,7 +2058,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -2043,7 +2072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -2057,7 +2086,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>227</v>
       </c>
@@ -2071,7 +2100,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -2085,7 +2114,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>229</v>
       </c>
@@ -2099,7 +2128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>230</v>
       </c>
@@ -2113,7 +2142,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
@@ -2127,9 +2156,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1302</v>
@@ -2142,33 +2171,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
@@ -2182,7 +2212,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
@@ -2196,7 +2226,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -2210,9 +2240,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>531</v>
@@ -2225,142 +2255,143 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>244</v>
       </c>
@@ -2437,7 +2468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>245</v>
       </c>
@@ -2514,7 +2545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>246</v>
       </c>
@@ -2591,9 +2622,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>101</v>
@@ -2670,42 +2701,43 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
@@ -2719,7 +2751,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
@@ -2733,7 +2765,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -2747,9 +2779,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>276</v>
@@ -2762,114 +2794,115 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>254</v>
       </c>
@@ -2928,7 +2961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>245</v>
       </c>
@@ -2987,7 +3020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>255</v>
       </c>
@@ -3046,9 +3079,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>56</v>
@@ -3107,40 +3140,41 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
@@ -3154,7 +3188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -3168,7 +3202,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>259</v>
       </c>
@@ -3182,7 +3216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
@@ -3196,9 +3230,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>215</v>
@@ -3211,33 +3245,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -3251,7 +3286,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>262</v>
       </c>
@@ -3265,7 +3300,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
@@ -3279,7 +3314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>264</v>
       </c>
@@ -3293,7 +3328,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>265</v>
       </c>
@@ -3307,7 +3342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>266</v>
       </c>
@@ -3321,7 +3356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>267</v>
       </c>
@@ -3335,7 +3370,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>268</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>269</v>
       </c>
@@ -3363,7 +3398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>235</v>
       </c>
@@ -3377,7 +3412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>270</v>
       </c>
@@ -3391,9 +3426,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>779</v>
@@ -3406,87 +3441,88 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>397</v>
@@ -3516,9 +3552,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -3548,9 +3584,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>422</v>
@@ -3589,33 +3625,34 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>272</v>
       </c>
@@ -3629,7 +3666,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>233</v>
       </c>
@@ -3643,7 +3680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>273</v>
       </c>
@@ -3657,9 +3694,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>215</v>
@@ -3672,35 +3709,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -3712,9 +3750,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -3726,7 +3764,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>275</v>
       </c>
@@ -3740,9 +3778,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>143</v>
@@ -3755,33 +3793,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>277</v>
       </c>
@@ -3795,7 +3834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>278</v>
       </c>
@@ -3809,7 +3848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
@@ -3823,7 +3862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>280</v>
       </c>
@@ -3837,7 +3876,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>281</v>
       </c>
@@ -3851,7 +3890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
@@ -3865,7 +3904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>283</v>
       </c>
@@ -3879,7 +3918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>284</v>
       </c>
@@ -3893,7 +3932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>285</v>
       </c>
@@ -3907,7 +3946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>286</v>
       </c>
@@ -3921,7 +3960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>287</v>
       </c>
@@ -3935,7 +3974,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>288</v>
       </c>
@@ -3949,7 +3988,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
@@ -3963,7 +4002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>290</v>
       </c>
@@ -3977,7 +4016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>270</v>
       </c>
@@ -3991,9 +4030,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>397</v>
@@ -4006,151 +4045,152 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
       <c r="J6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B7">
         <v>422</v>
@@ -4189,54 +4229,55 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -4245,57 +4286,57 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1008</v>
@@ -4343,13 +4384,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>86</v>
@@ -4397,15 +4438,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>91</v>
@@ -4453,13 +4494,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -4507,13 +4548,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>1193</v>
@@ -4563,431 +4604,433 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>1008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8">
+        <v>1193</v>
+      </c>
+      <c r="E8">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>82</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>88</v>
+      </c>
+      <c r="K8">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>94</v>
+      </c>
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>106</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>147</v>
+      </c>
+      <c r="Q8">
+        <v>102</v>
+      </c>
+      <c r="R8">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4">
-        <v>1008</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8">
-        <v>1193</v>
-      </c>
-      <c r="E8">
-        <v>93</v>
-      </c>
-      <c r="F8">
-        <v>94</v>
-      </c>
-      <c r="G8">
-        <v>71</v>
-      </c>
-      <c r="H8">
-        <v>82</v>
-      </c>
-      <c r="I8">
-        <v>63</v>
-      </c>
-      <c r="J8">
-        <v>88</v>
-      </c>
-      <c r="K8">
-        <v>49</v>
-      </c>
-      <c r="L8">
-        <v>94</v>
-      </c>
-      <c r="M8">
-        <v>64</v>
-      </c>
-      <c r="N8">
-        <v>106</v>
-      </c>
-      <c r="O8">
-        <v>50</v>
-      </c>
-      <c r="P8">
-        <v>147</v>
-      </c>
-      <c r="Q8">
-        <v>102</v>
-      </c>
-      <c r="R8">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4999,9 +5042,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5013,9 +5056,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5027,9 +5070,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5041,9 +5084,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -5055,9 +5098,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5069,9 +5112,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -5083,9 +5126,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5097,9 +5140,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5111,9 +5154,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -5125,9 +5168,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5139,9 +5182,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5153,9 +5196,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5167,9 +5210,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -5181,9 +5224,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -5195,9 +5238,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>40</v>
@@ -5210,35 +5253,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5250,9 +5294,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -5264,9 +5308,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5278,9 +5322,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5292,9 +5336,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5306,9 +5350,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -5320,9 +5364,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -5334,9 +5378,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -5349,50 +5393,51 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+        <v>135</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -5401,47 +5446,47 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C4">
         <v>163</v>
@@ -5477,12 +5522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>487</v>
@@ -5518,12 +5563,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -5559,12 +5604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>152</v>
@@ -5600,12 +5645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>172</v>
@@ -5641,12 +5686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C9">
         <v>177</v>
@@ -5682,12 +5727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>34</v>
@@ -5723,12 +5768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C11">
         <v>101</v>
@@ -5764,9 +5809,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -5807,57 +5852,58 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+        <v>135</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -5866,372 +5912,372 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C4">
         <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>487</v>
       </c>
       <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
         <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" t="s">
-        <v>193</v>
-      </c>
-      <c r="M5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C9">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C11">
         <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -6272,13 +6318,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/personal/outputs/個人版分析.xlsx
+++ b/personal/outputs/個人版分析.xlsx
@@ -9,38 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="年齡" sheetId="1" r:id="rId1"/>
-    <sheet name="最高畢業" sheetId="3" r:id="rId2"/>
-    <sheet name="最高畢業(比例)" sheetId="4" r:id="rId3"/>
-    <sheet name="總年資" sheetId="5" r:id="rId4"/>
-    <sheet name="總年資(比例)" sheetId="6" r:id="rId5"/>
-    <sheet name="離開工程職務最主要原因分析" sheetId="7" r:id="rId6"/>
-    <sheet name="目前工作狀況" sheetId="8" r:id="rId7"/>
-    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="9" r:id="rId8"/>
-    <sheet name="對於現任職務之五年後職涯發展的預期(比例)" sheetId="10" r:id="rId9"/>
-    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="11" r:id="rId10"/>
-    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="12" r:id="rId11"/>
-    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="13" r:id="rId12"/>
-    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="14" r:id="rId13"/>
-    <sheet name="女性身上求學階段有否差異(性別)" sheetId="15" r:id="rId14"/>
-    <sheet name="女性身上求學階段有否差異" sheetId="16" r:id="rId15"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="17" r:id="rId16"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="18" r:id="rId17"/>
-    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="19" r:id="rId18"/>
-    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="20" r:id="rId19"/>
-    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="21" r:id="rId20"/>
-    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="22" r:id="rId21"/>
-    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="23" r:id="rId22"/>
+    <sheet name="最高學歷" sheetId="2" r:id="rId2"/>
+    <sheet name="最高畢業" sheetId="3" r:id="rId3"/>
+    <sheet name="最高畢業(比例)" sheetId="4" r:id="rId4"/>
+    <sheet name="總年資" sheetId="5" r:id="rId5"/>
+    <sheet name="總年資(比例)" sheetId="6" r:id="rId6"/>
+    <sheet name="離開工程職務最主要原因分析" sheetId="7" r:id="rId7"/>
+    <sheet name="目前工作狀況" sheetId="8" r:id="rId8"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="9" r:id="rId9"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期(比例)" sheetId="10" r:id="rId10"/>
+    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="11" r:id="rId11"/>
+    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="12" r:id="rId12"/>
+    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="13" r:id="rId13"/>
+    <sheet name="您目前服務的職務較接近下列何者" sheetId="14" r:id="rId14"/>
+    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="15" r:id="rId15"/>
+    <sheet name="女性身上求學階段有否差異(性別)" sheetId="16" r:id="rId16"/>
+    <sheet name="女性身上求學階段有否差異" sheetId="17" r:id="rId17"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="18" r:id="rId18"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="19" r:id="rId19"/>
+    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="20" r:id="rId20"/>
+    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="21" r:id="rId21"/>
+    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="22" r:id="rId22"/>
+    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="23" r:id="rId23"/>
+    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="324">
   <si>
     <t>女性占比</t>
   </si>
@@ -135,30 +137,108 @@
     <t>高職</t>
   </si>
   <si>
+    <t>女性佔比</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>100.0%</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>40.0%</t>
+  </si>
+  <si>
+    <t>47.1%</t>
+  </si>
+  <si>
+    <t>61.9%</t>
+  </si>
+  <si>
     <t>38.9%</t>
   </si>
   <si>
     <t>25.0%</t>
   </si>
   <si>
+    <t>18.8%</t>
+  </si>
+  <si>
     <t>22.2%</t>
   </si>
   <si>
+    <t>42.9%</t>
+  </si>
+  <si>
+    <t>52.2%</t>
+  </si>
+  <si>
+    <t>47.4%</t>
+  </si>
+  <si>
     <t>50.0%</t>
   </si>
   <si>
+    <t>41.0%</t>
+  </si>
+  <si>
+    <t>38.0%</t>
+  </si>
+  <si>
+    <t>41.7%</t>
+  </si>
+  <si>
     <t>23.4%</t>
   </si>
   <si>
+    <t>26.3%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>72.0%</t>
+  </si>
+  <si>
     <t>52.9%</t>
   </si>
   <si>
+    <t>47.7%</t>
+  </si>
+  <si>
+    <t>31.6%</t>
+  </si>
+  <si>
     <t>40.8%</t>
   </si>
   <si>
+    <t>36.4%</t>
+  </si>
+  <si>
+    <t>29.0%</t>
+  </si>
+  <si>
+    <t>9.1%</t>
+  </si>
+  <si>
+    <t>39.8%</t>
+  </si>
+  <si>
+    <t>33.3%</t>
+  </si>
+  <si>
+    <t>37.5%</t>
+  </si>
+  <si>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>27.4%</t>
+  </si>
+  <si>
     <t>工程與科技相關領域</t>
   </si>
   <si>
@@ -375,7 +455,7 @@
     <t>95.6%</t>
   </si>
   <si>
-    <t>離開工程職務原因(72人)</t>
+    <t>離開工程職務原因(236人)</t>
   </si>
   <si>
     <t>人際相處</t>
@@ -423,7 +503,7 @@
     <t>須照顧家人</t>
   </si>
   <si>
-    <t>目前的工作狀況(107人)</t>
+    <t>目前的工作狀況(72人)</t>
   </si>
   <si>
     <t>尚在求職</t>
@@ -702,6 +782,30 @@
     <t>無，沒有提供</t>
   </si>
   <si>
+    <t>您目前服務的職務較接近下列何者？(1307人)</t>
+  </si>
+  <si>
+    <t>公司或學術研究機構之高階主管，如董事長、總/副總經理或所長、院長層級</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>工程與科技領域之管理職務</t>
+  </si>
+  <si>
+    <t>工程與科技領域之非管理職務</t>
+  </si>
+  <si>
+    <t>自行創業或自行開業之技師</t>
+  </si>
+  <si>
+    <t>非工程與科技領域之管理職務</t>
+  </si>
+  <si>
+    <t>非工程與科技領域之非管理職務</t>
+  </si>
+  <si>
     <t>您認為工程與科技領域最需要改善的性別議題有哪些？(1307人)</t>
   </si>
   <si>
@@ -850,9 +954,6 @@
   </si>
   <si>
     <t>沒有差異</t>
-  </si>
-  <si>
-    <t>其他</t>
   </si>
   <si>
     <t>對您的經驗，不同性別的工程與科技領域主管是否有領導風格的差異？</t>
@@ -1431,158 +1532,471 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5">
+        <v>487</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2">
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" t="s">
         <v>193</v>
       </c>
-      <c r="C2">
-        <v>312</v>
-      </c>
-      <c r="D2">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3">
-        <v>366</v>
-      </c>
-      <c r="C3">
-        <v>560</v>
-      </c>
-      <c r="D3">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4">
-        <v>71</v>
-      </c>
-      <c r="C4">
-        <v>127</v>
-      </c>
-      <c r="D4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G9" t="s">
         <v>199</v>
       </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" t="s">
         <v>200</v>
       </c>
-      <c r="B6">
-        <v>98</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>153</v>
-      </c>
-      <c r="D7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>72</v>
-      </c>
-      <c r="D8">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="C9">
+      <c r="H10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
-        <v>913</v>
-      </c>
-      <c r="C10">
-        <v>1359</v>
-      </c>
-      <c r="D10">
-        <v>2272</v>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1307</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>306</v>
+      </c>
+      <c r="G12">
+        <v>411</v>
+      </c>
+      <c r="H12">
+        <v>147</v>
+      </c>
+      <c r="I12">
+        <v>222</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>45</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1590,178 +2004,166 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>531</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>776</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="D3">
-        <v>172</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B4">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="C4">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="D4">
-        <v>507</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>364</v>
+        <v>127</v>
       </c>
       <c r="D5">
-        <v>640</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B10">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>221</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>913</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1359</v>
       </c>
       <c r="D11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>1245</v>
-      </c>
-      <c r="C12">
-        <v>1649</v>
-      </c>
-      <c r="D12">
-        <v>2894</v>
+        <v>2272</v>
       </c>
     </row>
   </sheetData>
@@ -1772,206 +2174,194 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>531</v>
       </c>
       <c r="C2">
-        <v>282</v>
+        <v>776</v>
       </c>
       <c r="D2">
-        <v>424</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
         <v>52</v>
       </c>
-      <c r="C4">
-        <v>99</v>
-      </c>
       <c r="D4">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="D5">
-        <v>173</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B10">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="C10">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>424</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C11">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="B12">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>315</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>578</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>193</v>
+        <v>1245</v>
       </c>
       <c r="C13">
-        <v>141</v>
+        <v>1649</v>
       </c>
       <c r="D13">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>1105</v>
-      </c>
-      <c r="C14">
-        <v>1602</v>
-      </c>
-      <c r="D14">
-        <v>2707</v>
+        <v>2894</v>
       </c>
     </row>
   </sheetData>
@@ -1982,192 +2372,222 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>531</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>776</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B4">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>583</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B5">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>261</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B7">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>295</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B8">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="D8">
-        <v>424</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B9">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="D11">
-        <v>223</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B12">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>440</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13">
+        <v>263</v>
+      </c>
+      <c r="C13">
+        <v>315</v>
+      </c>
+      <c r="D13">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14">
+        <v>193</v>
+      </c>
+      <c r="C14">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
-        <v>1302</v>
-      </c>
-      <c r="C13">
-        <v>1728</v>
-      </c>
-      <c r="D13">
-        <v>3030</v>
+      <c r="B15">
+        <v>1105</v>
+      </c>
+      <c r="C15">
+        <v>1602</v>
+      </c>
+      <c r="D15">
+        <v>2707</v>
       </c>
     </row>
   </sheetData>
@@ -2178,79 +2598,151 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="C2">
-        <v>392</v>
+        <v>776</v>
       </c>
       <c r="D2">
-        <v>590</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B3">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>518</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>323</v>
+      </c>
+      <c r="D5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>347</v>
+      </c>
+      <c r="C6">
+        <v>335</v>
+      </c>
+      <c r="D6">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
         <v>531</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>776</v>
       </c>
-      <c r="D5">
+      <c r="D10">
         <v>1307</v>
       </c>
     </row>
@@ -2262,51 +2754,351 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>531</v>
+      </c>
+      <c r="C2">
+        <v>776</v>
+      </c>
+      <c r="D2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5">
+        <v>274</v>
+      </c>
+      <c r="C5">
+        <v>309</v>
+      </c>
+      <c r="D5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>176</v>
+      </c>
+      <c r="D8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>257</v>
+      </c>
+      <c r="D9">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10">
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12">
+        <v>130</v>
+      </c>
+      <c r="C12">
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13">
+        <v>209</v>
+      </c>
+      <c r="C13">
+        <v>231</v>
+      </c>
+      <c r="D13">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1302</v>
+      </c>
+      <c r="C14">
+        <v>1728</v>
+      </c>
+      <c r="D14">
+        <v>3030</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2">
+        <v>198</v>
+      </c>
+      <c r="C2">
+        <v>392</v>
+      </c>
+      <c r="D2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3">
+        <v>276</v>
+      </c>
+      <c r="C3">
+        <v>242</v>
+      </c>
+      <c r="D3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>142</v>
+      </c>
+      <c r="D4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>531</v>
+      </c>
+      <c r="C5">
+        <v>776</v>
+      </c>
+      <c r="D5">
+        <v>1307</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:Y7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -2314,86 +3106,86 @@
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -2470,7 +3262,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -2547,7 +3339,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -2624,7 +3416,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>101</v>
@@ -2715,31 +3507,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -2753,7 +3548,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="B3">
         <v>215</v>
@@ -2767,7 +3562,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -2781,7 +3576,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>276</v>
@@ -2799,43 +3594,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -2843,68 +3641,68 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -2963,7 +3761,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -3022,7 +3820,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3052,13 +3850,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="L6" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M6" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3081,7 +3879,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>56</v>
@@ -3152,7 +3950,546 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>1307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>717</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>369</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3162,21 +4499,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -3190,7 +4527,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -3204,7 +4541,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -3218,7 +4555,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -3232,7 +4569,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>215</v>
@@ -3250,9 +4587,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3260,183 +4597,197 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B3">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>173</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="B5">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="B8">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>207</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="B9">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>779</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>401</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1180</v>
       </c>
     </row>
@@ -3446,191 +4797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>397</v>
-      </c>
-      <c r="C5">
-        <v>647</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
-      </c>
-      <c r="E5">
-        <v>46</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>422</v>
-      </c>
-      <c r="C7">
-        <v>687</v>
-      </c>
-      <c r="D7">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>55</v>
-      </c>
-      <c r="G7">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>1307</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3640,21 +4807,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="B2">
         <v>37</v>
@@ -3668,7 +4835,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B3">
         <v>35</v>
@@ -3682,7 +4849,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="B4">
         <v>143</v>
@@ -3696,7 +4863,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>215</v>
@@ -3714,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3724,21 +4891,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -3752,7 +4919,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -3766,7 +4933,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="B4">
         <v>95</v>
@@ -3780,7 +4947,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>143</v>
@@ -3798,9 +4965,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3808,239 +4975,253 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>6</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
       <c r="D8">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>397</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>249</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>646</v>
       </c>
     </row>
@@ -4061,13 +5242,13 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4077,19 +5258,19 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -4097,100 +5278,100 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>397</v>
+      </c>
+      <c r="C5">
+        <v>647</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>422</v>
@@ -4236,384 +5417,182 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>1008</v>
-      </c>
-      <c r="E4">
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="F4">
-        <v>93</v>
-      </c>
-      <c r="G4">
-        <v>62</v>
-      </c>
-      <c r="H4">
-        <v>77</v>
-      </c>
-      <c r="I4">
-        <v>47</v>
-      </c>
-      <c r="J4">
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="K4">
-        <v>32</v>
-      </c>
-      <c r="L4">
-        <v>79</v>
-      </c>
-      <c r="M4">
-        <v>48</v>
-      </c>
-      <c r="N4">
-        <v>84</v>
-      </c>
-      <c r="O4">
-        <v>28</v>
-      </c>
-      <c r="P4">
-        <v>113</v>
-      </c>
-      <c r="Q4">
-        <v>92</v>
-      </c>
-      <c r="R4">
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>15</v>
-      </c>
-      <c r="P5">
-        <v>14</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6">
-        <v>91</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>422</v>
+      </c>
+      <c r="C7">
+        <v>687</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <v>17</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <v>18</v>
-      </c>
-      <c r="Q6">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8">
-        <v>1193</v>
-      </c>
-      <c r="E8">
-        <v>93</v>
-      </c>
-      <c r="F8">
-        <v>94</v>
-      </c>
-      <c r="G8">
-        <v>71</v>
-      </c>
-      <c r="H8">
-        <v>82</v>
-      </c>
-      <c r="I8">
-        <v>63</v>
-      </c>
-      <c r="J8">
-        <v>88</v>
-      </c>
-      <c r="K8">
-        <v>49</v>
-      </c>
-      <c r="L8">
-        <v>94</v>
-      </c>
-      <c r="M8">
-        <v>64</v>
-      </c>
-      <c r="N8">
-        <v>106</v>
-      </c>
-      <c r="O8">
-        <v>50</v>
-      </c>
-      <c r="P8">
-        <v>147</v>
-      </c>
-      <c r="Q8">
-        <v>102</v>
-      </c>
-      <c r="R8">
-        <v>90</v>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4631,35 +5610,35 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="R1" s="2"/>
     </row>
@@ -4672,266 +5651,266 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1008</v>
       </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>93</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>84</v>
+      </c>
+      <c r="K4">
+        <v>32</v>
+      </c>
+      <c r="L4">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <v>84</v>
+      </c>
+      <c r="O4">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>113</v>
+      </c>
+      <c r="Q4">
         <v>92</v>
       </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" t="s">
-        <v>110</v>
+      <c r="R4">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>86</v>
       </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" t="s">
-        <v>77</v>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>91</v>
       </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" t="s">
-        <v>76</v>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" t="s">
-        <v>77</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4940,7 +5919,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>1193</v>
@@ -5008,7 +5987,393 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>1008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>1193</v>
+      </c>
+      <c r="E8">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>82</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>88</v>
+      </c>
+      <c r="K8">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>94</v>
+      </c>
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>106</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>147</v>
+      </c>
+      <c r="Q8">
+        <v>102</v>
+      </c>
+      <c r="R8">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5016,147 +6381,147 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -5170,85 +6535,99 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>4</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
       <c r="D15">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>62</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>102</v>
       </c>
     </row>
@@ -5258,7 +6637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -5268,49 +6647,49 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5324,541 +6703,75 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4">
-        <v>163</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4">
-        <v>62</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>38</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5">
-        <v>487</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>125</v>
-      </c>
-      <c r="G5">
-        <v>129</v>
-      </c>
-      <c r="H5">
-        <v>56</v>
-      </c>
-      <c r="I5">
-        <v>80</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>19</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>152</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>58</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8">
-        <v>172</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>70</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9">
-        <v>177</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>56</v>
-      </c>
-      <c r="H9">
-        <v>30</v>
-      </c>
-      <c r="I9">
-        <v>24</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11">
-        <v>101</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>21</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1307</v>
-      </c>
-      <c r="D12">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>94</v>
-      </c>
-      <c r="F12">
-        <v>306</v>
-      </c>
-      <c r="G12">
-        <v>411</v>
-      </c>
-      <c r="H12">
-        <v>147</v>
-      </c>
-      <c r="I12">
-        <v>222</v>
-      </c>
-      <c r="J12">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>45</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5874,10 +6787,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
@@ -5903,7 +6816,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -5912,367 +6825,367 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>163</v>
       </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <v>487</v>
       </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>125</v>
+      </c>
+      <c r="G5">
+        <v>129</v>
+      </c>
+      <c r="H5">
+        <v>56</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C7">
         <v>152</v>
       </c>
-      <c r="D7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>58</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C8">
         <v>172</v>
       </c>
-      <c r="D8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>177</v>
       </c>
-      <c r="D9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C11">
         <v>101</v>
       </c>
-      <c r="D11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/personal/outputs/個人版分析.xlsx
+++ b/personal/outputs/個人版分析.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="年齡" sheetId="1" r:id="rId1"/>
@@ -2969,7 +2969,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3054,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:Y7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y7" sqref="B4:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3598,7 +3600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:S7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4591,7 +4595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4801,7 +4807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4969,7 +4977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6375,7 +6385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6641,7 +6653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/personal/outputs/個人版分析.xlsx
+++ b/personal/outputs/個人版分析.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naichen\Documents\GitHub\stu00608.github.io\PartTime_PythonAnalysis\personal\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="21" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="年齡" sheetId="1" r:id="rId1"/>
@@ -37,12 +32,12 @@
     <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="23" r:id="rId23"/>
     <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="323">
   <si>
     <t>女性占比</t>
   </si>
@@ -455,7 +450,7 @@
     <t>95.6%</t>
   </si>
   <si>
-    <t>離開工程職務原因(236人)</t>
+    <t>離開工程職務原因(102人)</t>
   </si>
   <si>
     <t>人際相處</t>
@@ -912,9 +907,6 @@
   </si>
   <si>
     <t>男性較有此傾向</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>不同性別在工程與科技領域的求職難易度有否差異？</t>
@@ -1019,12 +1011,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1032,15 +1024,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1079,33 +1064,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1147,7 +1121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1179,10 +1153,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1214,7 +1187,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1390,14 +1362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1408,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1402,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1441,7 +1413,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1424,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1435,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1474,7 +1446,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1479,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1530,50 +1502,48 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>162</v>
       </c>
@@ -1614,12 +1584,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
@@ -1660,7 +1630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>166</v>
       </c>
@@ -1701,7 +1671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
@@ -1742,7 +1712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -1783,7 +1753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -1824,7 +1794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
@@ -1865,7 +1835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
@@ -1906,7 +1876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -1947,7 +1917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1990,29 +1960,26 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -2026,7 +1993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2040,7 +2007,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -2054,7 +2021,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
@@ -2068,7 +2035,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>224</v>
       </c>
@@ -2082,7 +2049,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -2096,7 +2063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -2110,7 +2077,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>227</v>
       </c>
@@ -2124,7 +2091,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -2138,7 +2105,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>229</v>
       </c>
@@ -2152,7 +2119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2167,22 +2134,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
@@ -2196,7 +2160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2210,7 +2174,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>231</v>
       </c>
@@ -2224,7 +2188,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
@@ -2238,7 +2202,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>233</v>
       </c>
@@ -2252,7 +2216,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>234</v>
       </c>
@@ -2266,7 +2230,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>235</v>
       </c>
@@ -2280,7 +2244,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>236</v>
       </c>
@@ -2294,7 +2258,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>237</v>
       </c>
@@ -2308,7 +2272,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -2322,7 +2286,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>239</v>
       </c>
@@ -2336,7 +2300,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -2350,7 +2314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2365,22 +2329,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -2394,7 +2355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2408,7 +2369,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>242</v>
       </c>
@@ -2422,7 +2383,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
@@ -2436,7 +2397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
@@ -2450,7 +2411,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>232</v>
       </c>
@@ -2464,7 +2425,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>243</v>
       </c>
@@ -2478,7 +2439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>244</v>
       </c>
@@ -2492,7 +2453,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>235</v>
       </c>
@@ -2506,7 +2467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>236</v>
       </c>
@@ -2520,7 +2481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>245</v>
       </c>
@@ -2534,7 +2495,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>238</v>
       </c>
@@ -2548,7 +2509,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>239</v>
       </c>
@@ -2562,7 +2523,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>240</v>
       </c>
@@ -2576,7 +2537,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2591,22 +2552,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
@@ -2620,7 +2578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2634,7 +2592,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
@@ -2648,7 +2606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>248</v>
       </c>
@@ -2662,7 +2620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -2676,7 +2634,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>250</v>
       </c>
@@ -2690,7 +2648,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>251</v>
       </c>
@@ -2704,7 +2662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -2718,7 +2676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>253</v>
       </c>
@@ -2732,7 +2690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2747,22 +2705,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
@@ -2776,7 +2731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,7 +2745,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>255</v>
       </c>
@@ -2804,7 +2759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -2818,7 +2773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>257</v>
       </c>
@@ -2832,7 +2787,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>258</v>
       </c>
@@ -2846,7 +2801,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>259</v>
       </c>
@@ -2860,7 +2815,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>260</v>
       </c>
@@ -2874,7 +2829,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>261</v>
       </c>
@@ -2888,7 +2843,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>262</v>
       </c>
@@ -2902,7 +2857,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>263</v>
       </c>
@@ -2916,7 +2871,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>264</v>
       </c>
@@ -2930,7 +2885,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>265</v>
       </c>
@@ -2944,7 +2899,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2959,22 +2914,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>266</v>
       </c>
@@ -2988,7 +2940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>267</v>
       </c>
@@ -3002,7 +2954,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>268</v>
       </c>
@@ -3016,7 +2968,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>269</v>
       </c>
@@ -3030,7 +2982,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -3045,65 +2997,62 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y7" sqref="B4:Y7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>69</v>
@@ -3178,349 +3127,343 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>202</v>
+      </c>
+      <c r="E4">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>186</v>
+      </c>
+      <c r="H4">
+        <v>140</v>
+      </c>
+      <c r="I4">
+        <v>133</v>
+      </c>
+      <c r="J4">
+        <v>273</v>
+      </c>
+      <c r="K4">
+        <v>139</v>
+      </c>
+      <c r="L4">
+        <v>135</v>
+      </c>
+      <c r="M4">
+        <v>274</v>
+      </c>
+      <c r="N4">
+        <v>84</v>
+      </c>
+      <c r="O4">
+        <v>99</v>
+      </c>
+      <c r="P4">
+        <v>183</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>152</v>
+      </c>
+      <c r="U4">
+        <v>103</v>
+      </c>
+      <c r="V4">
+        <v>255</v>
+      </c>
+      <c r="W4">
         <v>38</v>
       </c>
-      <c r="D4">
-        <v>83</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>36</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-      <c r="J4">
-        <v>71</v>
-      </c>
-      <c r="K4">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>39</v>
-      </c>
-      <c r="N4">
-        <v>38</v>
-      </c>
-      <c r="O4">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>63</v>
-      </c>
-      <c r="Q4">
-        <v>54</v>
-      </c>
-      <c r="R4">
-        <v>50</v>
-      </c>
-      <c r="S4">
-        <v>104</v>
-      </c>
-      <c r="T4">
-        <v>57</v>
-      </c>
-      <c r="U4">
-        <v>47</v>
-      </c>
-      <c r="V4">
-        <v>104</v>
-      </c>
-      <c r="W4">
-        <v>37</v>
-      </c>
       <c r="X4">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="Y4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I5">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="J5">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="K5">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="L5">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="M5">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="N5">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="O5">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="P5">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="Q5">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="R5">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="S5">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="T5">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="U5">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="V5">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="W5">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="X5">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Y5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+      <c r="O6">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>110</v>
-      </c>
-      <c r="H6">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>34</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
+      <c r="P6">
+        <v>33</v>
+      </c>
+      <c r="Q6">
+        <v>130</v>
+      </c>
+      <c r="R6">
+        <v>158</v>
+      </c>
+      <c r="S6">
+        <v>288</v>
+      </c>
+      <c r="T6">
         <v>16</v>
       </c>
-      <c r="M6">
-        <v>24</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>14</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>15</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
       <c r="U6">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="V6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="X6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>511</v>
       </c>
       <c r="E7">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="G7">
-        <v>179</v>
+        <v>511</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="J7">
-        <v>180</v>
+        <v>511</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="L7">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="M7">
-        <v>180</v>
+        <v>513</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="O7">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="P7">
-        <v>180</v>
+        <v>512</v>
       </c>
       <c r="Q7">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="R7">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="S7">
-        <v>182</v>
+        <v>508</v>
       </c>
       <c r="T7">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="U7">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="V7">
-        <v>182</v>
+        <v>512</v>
       </c>
       <c r="W7">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="X7">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Y7">
-        <v>181</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
@@ -3534,7 +3477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>267</v>
       </c>
@@ -3548,7 +3491,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>268</v>
       </c>
@@ -3562,7 +3505,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>269</v>
       </c>
@@ -3576,7 +3519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -3591,58 +3534,52 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:S7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>69</v>
@@ -3699,130 +3636,130 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="J4">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="K4">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="N4">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="O4">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="P4">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="O5">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P5">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="R5">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="S5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>289</v>
       </c>
@@ -3836,160 +3773,159 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>290</v>
-      </c>
-      <c r="L6" t="s">
-        <v>290</v>
-      </c>
-      <c r="M6" t="s">
-        <v>290</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="R6">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="S6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>362</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="G7">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="I7">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="J7">
-        <v>94</v>
+        <v>359</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>359</v>
       </c>
       <c r="N7">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="O7">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="P7">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="Q7">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="R7">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="S7">
-        <v>95</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -4028,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4069,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4110,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4192,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4233,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4274,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4315,7 +4251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4356,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4397,7 +4333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4438,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -4481,29 +4417,28 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>69</v>
@@ -4515,7 +4450,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>267</v>
       </c>
@@ -4529,9 +4464,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -4543,9 +4478,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -4557,7 +4492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>269</v>
       </c>
@@ -4571,7 +4506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,24 +4521,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>69</v>
@@ -4615,7 +4547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -4629,9 +4561,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3">
         <v>66</v>
@@ -4643,9 +4575,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4">
         <v>106</v>
@@ -4657,9 +4589,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B5">
         <v>114</v>
@@ -4671,9 +4603,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6">
         <v>159</v>
@@ -4685,9 +4617,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4699,9 +4631,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8">
         <v>39</v>
@@ -4713,9 +4645,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B9">
         <v>136</v>
@@ -4727,9 +4659,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10">
         <v>130</v>
@@ -4741,9 +4673,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -4755,7 +4687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>269</v>
       </c>
@@ -4769,7 +4701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>248</v>
       </c>
@@ -4783,7 +4715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4798,24 +4730,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>69</v>
@@ -4827,9 +4756,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2">
         <v>37</v>
@@ -4841,7 +4770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>267</v>
       </c>
@@ -4855,9 +4784,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4">
         <v>143</v>
@@ -4869,7 +4798,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -4884,22 +4813,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>69</v>
@@ -4911,7 +4839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -4925,7 +4853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -4939,9 +4867,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <v>95</v>
@@ -4953,7 +4881,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -4968,24 +4896,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>69</v>
@@ -4997,7 +4922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -5011,9 +4936,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -5025,9 +4950,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -5039,9 +4964,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -5053,9 +4978,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>69</v>
@@ -5067,9 +4992,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5081,9 +5006,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -5095,9 +5020,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -5109,9 +5034,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10">
         <v>31</v>
@@ -5123,9 +5048,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -5137,9 +5062,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -5151,9 +5076,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13">
         <v>84</v>
@@ -5165,9 +5090,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B14">
         <v>95</v>
@@ -5179,9 +5104,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -5193,9 +5118,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -5207,7 +5132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -5221,7 +5146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -5236,56 +5161,55 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -5315,7 +5239,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -5347,7 +5271,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5379,7 +5303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,56 +5344,55 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -5499,7 +5422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -5531,7 +5454,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5563,7 +5486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -5604,55 +5527,54 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -5703,8 +5625,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5759,8 +5681,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
@@ -5813,8 +5735,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5869,8 +5791,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
@@ -5923,8 +5845,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -5979,419 +5901,415 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>1008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>1193</v>
+      </c>
+      <c r="E8">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>82</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>88</v>
+      </c>
+      <c r="K8">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>94</v>
+      </c>
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>106</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>147</v>
+      </c>
+      <c r="Q8">
+        <v>102</v>
+      </c>
+      <c r="R8">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>1008</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>134</v>
-      </c>
-      <c r="R5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O6" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8">
-        <v>1193</v>
-      </c>
-      <c r="E8">
-        <v>93</v>
-      </c>
-      <c r="F8">
-        <v>94</v>
-      </c>
-      <c r="G8">
-        <v>71</v>
-      </c>
-      <c r="H8">
-        <v>82</v>
-      </c>
-      <c r="I8">
-        <v>63</v>
-      </c>
-      <c r="J8">
-        <v>88</v>
-      </c>
-      <c r="K8">
-        <v>49</v>
-      </c>
-      <c r="L8">
-        <v>94</v>
-      </c>
-      <c r="M8">
-        <v>64</v>
-      </c>
-      <c r="N8">
-        <v>106</v>
-      </c>
-      <c r="O8">
-        <v>50</v>
-      </c>
-      <c r="P8">
-        <v>147</v>
-      </c>
-      <c r="Q8">
-        <v>102</v>
-      </c>
-      <c r="R8">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -6405,7 +6323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -6419,7 +6337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -6433,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
@@ -6447,7 +6365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -6461,7 +6379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -6475,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>142</v>
       </c>
@@ -6489,7 +6407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>143</v>
       </c>
@@ -6503,7 +6421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>144</v>
       </c>
@@ -6517,7 +6435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>145</v>
       </c>
@@ -6531,7 +6449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
@@ -6545,7 +6463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -6559,7 +6477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -6573,7 +6491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>149</v>
       </c>
@@ -6587,7 +6505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -6601,7 +6519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -6615,7 +6533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -6629,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -6644,22 +6562,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -6673,7 +6588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -6687,7 +6602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -6701,7 +6616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
@@ -6715,7 +6630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
@@ -6729,7 +6644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
@@ -6743,7 +6658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -6757,7 +6672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>160</v>
       </c>
@@ -6771,7 +6686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -6786,49 +6701,48 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>162</v>
       </c>
@@ -6869,12 +6783,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
@@ -6915,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>166</v>
       </c>
@@ -6956,7 +6870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
@@ -6997,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -7038,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -7079,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
@@ -7120,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
@@ -7161,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -7202,7 +7116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7245,14 +7159,13 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>